--- a/数据整理/stocks/A股/深证主板/002124-天邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002124-天邦股份.xlsx
@@ -451,323 +451,433 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2478</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>001556</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>天弘中证500指数增强A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>94.55</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.71</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>001557</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>天弘中证500指数增强C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>94.55</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.71</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007614</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精锐股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>004790</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>富荣中证500指数增强A</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>94.43</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.50</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>004791</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>富荣中证500指数增强C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>94.43</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1.50</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005965</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007615</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精锐股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005966</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007614</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精锐股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007615</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精锐股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009043</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>九泰久信量化股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009874</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>九泰久睿量化股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -818,26 +938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004142</t>
+          <t>161810</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合A</t>
+          <t>银华内需精选混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>33.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2841</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -846,25 +976,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004143</t>
+          <t>009864</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合C</t>
+          <t>招商景气优选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>55.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>44.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3169</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -884,15 +1024,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>17.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>64.69</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5271</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009864</t>
+          <t>161017</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商景气优选股票A</t>
+          <t>富国中证500指数增强(LOF)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.42</t>
+          <t>47.44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4697</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009865</t>
+          <t>006364</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商景气优选股票C</t>
+          <t>招商丰韵混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>44.42</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009874</t>
+          <t>008075</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>九泰久睿量化股票</t>
+          <t>招商核心优选股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3953</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006255</t>
+          <t>009865</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中邮中证价值回报量化策略指数A</t>
+          <t>招商景气优选股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.53</t>
+          <t>15.62</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>44.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3718</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006256</t>
+          <t>005106</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中邮中证价值回报量化策略指数C</t>
+          <t>银华农业产业股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.53</t>
+          <t>11.64</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3038</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006364</t>
+          <t>001556</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商丰韵混合A</t>
+          <t>天弘中证500指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>70.27</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2353</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006365</t>
+          <t>009874</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商丰韵混合C</t>
+          <t>九泰久睿量化股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>70.27</t>
+          <t>11.44</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010120</t>
+          <t>673081</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>九泰久福量化股票A</t>
+          <t>西部利得祥运灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>43.06</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010121</t>
+          <t>002628</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>九泰久福量化股票C</t>
+          <t>招商安博灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>43.06</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>50.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010153</t>
+          <t>006365</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中加中证500指数增强A</t>
+          <t>招商丰韵混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010154</t>
+          <t>001557</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中加中证500指数增强C</t>
+          <t>天弘中证500指数增强C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007257</t>
+          <t>004142</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>凯石沣混合A</t>
+          <t>招商盛合灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>53.17</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007258</t>
+          <t>010120</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>凯石沣混合C</t>
+          <t>九泰久福量化股票A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>53.17</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>43.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001556</t>
+          <t>001839</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强A</t>
+          <t>九泰久兴灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001557</t>
+          <t>673083</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强C</t>
+          <t>西部利得祥运灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001839</t>
+          <t>008076</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>九泰久兴灵活配置混合</t>
+          <t>招商核心优选股票C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1360,15 +1670,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>89.19</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1.22</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>007386</t>
+          <t>009726</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强C</t>
+          <t>招商中证500等权重指数增强A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>89.19</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>161017</t>
+          <t>002629</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>富国中证500指数增强(LOF)</t>
+          <t>招商安博灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
+          <t>50.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>673081</t>
+          <t>007257</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>西部利得祥运灵活配置混合A</t>
+          <t>凯石沣混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>83.67</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>53.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>673083</t>
+          <t>010153</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>西部利得祥运灵活配置混合C</t>
+          <t>中加中证500指数增强A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>83.67</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>161810</t>
+          <t>006255</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>银华内需精选混合(LOF)</t>
+          <t>中邮中证价值回报量化策略指数A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>94.75</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>005106</t>
+          <t>010154</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>银华农业产业股票</t>
+          <t>中加中证500指数增强C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>9</v>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>002628</t>
+          <t>009727</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>招商安博灵活配置混合A</t>
+          <t>招商中证500等权重指数增强C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>50.15</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1574,25 +1964,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>002629</t>
+          <t>007386</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>招商安博灵活配置混合C</t>
+          <t>浙商中证500指数增强C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>50.15</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>008075</t>
+          <t>007258</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>招商核心优选股票A</t>
+          <t>凯石沣混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>86.84</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>3</v>
+          <t>53.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>008076</t>
+          <t>010121</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>招商核心优选股票C</t>
+          <t>九泰久福量化股票C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>86.84</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>3</v>
+          <t>43.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>009726</t>
+          <t>006256</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>招商中证500等权重指数增强A</t>
+          <t>中邮中证价值回报量化策略指数C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>3</v>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>009727</t>
+          <t>004143</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>招商中证500等权重指数增强C</t>
+          <t>招商盛合灵活配置混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>3</v>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002124-天邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002124-天邦股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2151,4 +2152,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002124-天邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002124-天邦股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2512,4 +2513,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2685</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>55.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002124-天邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002124-天邦股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2759,4 +2760,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002124-天邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002124-天邦股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2768,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2779,17 +2780,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2799,14 +2820,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5</v>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5899</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2815,14 +2858,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.37</v>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8537</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2831,14 +2896,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>32</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.14</v>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7808</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2847,13 +2934,493 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7108</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3380</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002124-天邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002124-天邦股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3319,7 +3320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3330,17 +3331,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3350,14 +3371,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.32</v>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0179</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3366,14 +3409,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1973</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3382,14 +3447,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.37</v>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3154</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3398,14 +3485,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>32</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.14</v>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0938</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3414,13 +3523,1761 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9412</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6999</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6789</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5241</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4819</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3531</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3399</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2530</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2494</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>68.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>68.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>67.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>970032</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>970033</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>67.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>970046</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>970047</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>32</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002124-天邦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002124-天邦股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5160,7 +5161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5171,17 +5172,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5191,14 +5212,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.29</v>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8558</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5207,14 +5250,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.32</v>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1830</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5223,14 +5288,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5</v>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1223</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5239,14 +5326,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.37</v>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5208</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -5255,14 +5364,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>32</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.14</v>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4928</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -5271,13 +5402,829 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4928</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014915</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4218</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3576</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2965</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014179</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014916</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014180</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>32</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>
